--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s4_P1_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s4_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>863.6592543971528</v>
+        <v>1592.673300225919</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.95601360621536</v>
+        <v>21.54549771016641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.592417282872393</v>
+        <v>12.10979998706152</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.555658073811509</v>
+        <v>9.237602502814244</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>832.7399999999984</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,23 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -835,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -868,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -918,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>40.33845519167733</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.15868643584639</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>34.77463816779881</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34.77463816779881</v>
+        <v>20.50084538957422</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.46902814888774</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.58008498396507</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.78792875046599</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1026,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1040,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1054,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1068,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1082,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1096,15 +1085,127 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1207,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
@@ -1218,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10">
@@ -1240,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11">
@@ -1251,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
@@ -1262,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>136.505</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1273,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>141.37</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -1284,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>151.64</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -1295,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>147.335</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -1306,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>141.25</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -1317,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>55.99500000000073</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18">
@@ -1328,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>58.4</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
@@ -1339,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>57.00500000000073</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
@@ -1350,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>53.86000000000073</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
@@ -1361,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>55.98000000000073</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
@@ -1372,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>198.9800000000001</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1383,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>211.6850000000001</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1394,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>214.3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -1405,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>220.5450000000001</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -1416,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>215.3150000000001</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -1427,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>170.4799999999998</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1438,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>173.2749999999998</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1449,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>175.1699999999998</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1460,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>173.5649999999998</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1471,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>163.0549999999998</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1482,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>198.9800000000001</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33">
@@ -1493,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>211.6850000000001</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34">
@@ -1504,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35">
@@ -1515,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>220.5450000000001</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36">
@@ -1526,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>215.3150000000001</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37">
@@ -1537,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4799999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1548,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>173.2749999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1559,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>175.1699999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1570,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>173.5649999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1581,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>163.0549999999998</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>48.98000000000008</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3">
@@ -1639,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>61.68500000000009</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4">
@@ -1650,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>64.3</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
@@ -1661,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>70.5450000000001</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">
@@ -1672,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>65.31500000000005</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
@@ -1683,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>20.47999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1694,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>23.27499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1705,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>25.16999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1716,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>23.56499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1727,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>13.05499999999976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1840,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1851,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1862,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1873,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1939,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1950,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1961,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1972,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1983,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1994,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2005,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2016,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2027,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2038,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2079,10 +2180,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2090,10 +2191,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2101,10 +2202,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2112,10 +2213,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2123,10 +2224,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2134,10 +2235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2145,10 +2246,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2156,10 +2257,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2167,10 +2268,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2178,10 +2279,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2189,12 +2290,56 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
